--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/39_Isparta_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/39_Isparta_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAFCD0F8-D041-4FBB-9F31-384BF3625FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CCDED2B-AC7B-450D-8727-FFBA4485AA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{901687B8-70E2-4098-8513-C012406028E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{34EF9C02-5EF5-495C-911F-AC06195FD933}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="136" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2973E1A6-462E-49FC-AE26-3C0AE8706AA8}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{79522A3E-088E-4614-9403-D9DE0B64807F}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{CE02EF82-D28A-47F4-A1BE-945ECC9FF2BA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{D962F753-0DF2-4387-A870-8155BEBF8C97}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{3FF130D2-CF17-47BE-9255-9C02360E54AB}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{10CFB931-917E-41D6-8F70-8D45BAA9A5B2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{FDC8F382-0387-4647-B957-EA3596236964}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F3940499-8A4A-4AD1-AFB9-BC69983C4BD5}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{137B25AD-89D8-46AD-AFE3-E0EF798DD640}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{0CBA6354-91D6-47D9-8144-283DB4F049A8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{F492EBCF-92A7-4E6E-8464-4E9257A3E712}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{8C87D215-10B7-48F0-B37A-F570473869EB}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{7821E210-7D6E-4626-B1BF-B642C3CAE6C8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{A5D7797D-A4B9-4662-A4AA-8CB7ACBA6290}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99C90B9-5DF4-4DB7-8C3F-4B7BE16257C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DAB186-7DA0-4434-9F96-0939F2CD120A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2570,7 +2570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA61E09-9C0F-44F7-B788-2D867261293C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115BA866-51CC-4E75-A14C-852B6C6D8CEB}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3856,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D456B89A-E84F-497E-8741-6D322D33E15F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9112277A-E2B6-4034-A1DF-586BAFECAEFD}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5142,7 +5142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9BC4FF-216E-406C-9BCE-C3A39C367C77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FED8F9-A929-43B9-B1F6-B713C9540EBD}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6412,7 +6412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636C9C70-7770-42E2-9FE3-5A0F8D334029}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCC73F9-BB8F-45FD-82E6-9CEB6DE0364F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7699,7 +7699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B376D2C5-B631-4B00-A500-8C879399FEBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084B4FE2-2375-47A8-A27F-6A3846D85C06}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8988,7 +8988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D04CB9-1E2E-4E56-B5F1-007E88443C50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2973863-4CAD-4263-9779-A4FE41ECFE6E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10275,7 +10275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9707567D-3C7B-4D7F-8BE2-20B05DF70B64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F23476D-C3A7-4DF0-A9D3-B341D57625C7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11562,7 +11562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72193AF3-0C7D-40EB-AB64-66654E67D3F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D234A037-AF18-4216-90CC-66B9C435D68C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12849,7 +12849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21E34DE-37B3-438F-B5A0-849E7129894C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBEFB83-7E9C-4C56-8E55-9266DF882C7D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14134,7 +14134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE822B8-B630-405D-9A11-EB39D551C9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D717C0CF-2C8F-4B94-9515-6FE6DBC3CC05}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15419,7 +15419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC4C64A-D27C-4642-B590-0AB744A96139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB59A9F-5C98-4996-AEB1-729D1E89128F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
